--- a/unit7_character_driver/AM335x_GPIO.xlsx
+++ b/unit7_character_driver/AM335x_GPIO.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Game\Linux\unit7_character_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B932CB7-5912-4012-B475-27AF5E139AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A51DFC1-F623-4592-953D-6869B6D95D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-672" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{909724FB-943A-4423-A4E6-D06061983EC9}"/>
+    <workbookView xWindow="22932" yWindow="-672" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{909724FB-943A-4423-A4E6-D06061983EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
     <sheet name="Integration" sheetId="2" r:id="rId2"/>
     <sheet name="Functional Description" sheetId="3" r:id="rId3"/>
+    <sheet name="GPIO Registers" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>🔹 25.1.1 Mục đích của GPIO</t>
   </si>
@@ -972,13 +973,1370 @@
   </si>
   <si>
     <t>Bắt buộc đọc</t>
+  </si>
+  <si>
+    <t>✅ 25.3.1 Operating Modes — Các chế độ hoạt động của GPIO</t>
+  </si>
+  <si>
+    <t>Có 4 chế độ chính:</t>
+  </si>
+  <si>
+    <t>1. Active mode (Chế độ hoạt động):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GPIO hoạt động bình thường, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đồng bộ với clock giao tiếp (interface clock)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Có thể phát sinh interrupt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nếu có sự kiện ngoài và cấu hình cho phép.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Idle mode (Chế độ chờ):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GPIO chờ, interface clock </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>có thể dừng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Không tạo được interrupt.</t>
+  </si>
+  <si>
+    <t>Tùy chip, clock debounce có thể còn hoạt động.</t>
+  </si>
+  <si>
+    <t>3. Inactive mode (Chế độ không hoạt động):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gần giống Idle nhưng module </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hoàn toàn không hoạt động</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Không có hoạt động nào xảy ra.</t>
+  </si>
+  <si>
+    <t>4. Disabled mode (Tắt hoàn toàn):</t>
+  </si>
+  <si>
+    <r>
+      <t>Tắt clock nội bộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, GPIO bị vô hiệu hóa.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do phần mềm cấu hình.</t>
+  </si>
+  <si>
+    <t>Một số điểm kỹ thuật cần lưu ý:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Việc chuyển chế độ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Idle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inactive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>host processor yêu cầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thông qua tín hiệu hệ thống (sideband signals).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Disabled mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> được kích hoạt bằng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bit cấu hình trong thanh ghi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tất cả thanh ghi của GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> có thể truy cập theo chuẩn OCP (8, 16, 32 bit, little endian).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi ở </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Active mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, phát hiện tín hiệu ngoài được thực hiện nhờ interface clock; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>độ chính xác phụ thuộc tần số clock và cách gating được chọn.</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 25.3.2.1 Clocks — Các nguồn clock của GPIO</t>
+  </si>
+  <si>
+    <t>GPIO module sử dụng 2 loại clock chính:</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Debouncing Clock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dùng cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>logic lọc nhiễu (debounce)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Có thể </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lấy mẫu (sample) tín hiệu input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và lọc nhiễu bằng một độ trễ cấu hình được.</t>
+    </r>
+  </si>
+  <si>
+    <t>Không dùng để điều khiển các thanh ghi cấu hình debounce.</t>
+  </si>
+  <si>
+    <r>
+      <t>2. Interface Clock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cấp từ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bus ngoại vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (OCP interface).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dùng cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>toàn bộ logic nội bộ và giao tiếp OCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (trừ phần debouncing).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Có thể </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (tắt/mở) để giảm tiêu thụ điện khi không cần hoạt động.</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 25.3.2.4 Reset — Cơ chế reset của GPIO</t>
+  </si>
+  <si>
+    <t>Có 2 loại reset chính:</t>
+  </si>
+  <si>
+    <r>
+      <t>1. OCP Hardware Reset (reset phần cứng)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tín hiệu này </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>có tác động toàn cục</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đến module GPIO.</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi reset được kích hoạt (mức thấp), sẽ reset:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tất cả </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thanh ghi cấu hình</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tất cả </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DFFs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (flip-flop) dùng clock Interface/Debounce.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tất cả </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>state machine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bên trong.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Software Reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kích hoạt thông qua bit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOFTRESET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trong thanh ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_SYSCONFIG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Có </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hiệu lực tương đương</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> với hardware reset.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dùng phổ biến trong driver khi khởi tạo thiết bị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kiểm tra trạng thái reset:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESETDONE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trong thanh ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_SYSSTATUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khi reset đã hoàn tất cho cả 2 domain clock: interface và debounce.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Driver thường </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>poll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bit này sau khi ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>SOFTRESET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để đảm bảo GPIO đã sẵn sàng.</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ 25.3.4.3 – Data Input (Capture)/Output (Drive)</t>
+  </si>
+  <si>
+    <t>🔧 1. Cấu hình input/output</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thanh ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_OE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Output Enable):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Pin cấu hình </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bit = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Pin cấu hình </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mặc định sau reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: tất cả pin là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>🟢 2. Chế độ Output</t>
+  </si>
+  <si>
+    <r>
+      <t>Ghi dữ liệu:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ghi vào thanh ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_DATAOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hoặc dùng cách nhanh hơn:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ghi bit vào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_SETDATAOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set bit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ghi bit vào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_CLEARDATAOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clear bit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dữ liệu ghi ra pin đồng bộ với interface clock.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">👉 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lưu ý:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nếu không dùng pin để phát sinh interrupt thì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phải tắt interrupt enable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tương ứng để tránh xung nhiễu.</t>
+    </r>
+  </si>
+  <si>
+    <t>🔴 3. Chế độ Input</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trạng thái mức điện áp được đọc từ thanh ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_DATAIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đọc dữ liệu đồng bộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> với interface clock (2 chu kỳ clock sau khi mức pin thay đổi).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">👉 Nếu muốn pin có thể </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phát sinh interrupt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, cần bật các thanh ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IRQ enable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tương ứng.</t>
+    </r>
+  </si>
+  <si>
+    <t>25.4 GPIO Registers</t>
+  </si>
+  <si>
+    <t>25.4.1 GPIO_REVISION Register</t>
+  </si>
+  <si>
+    <t>25.4.2 GPIO_SYSCONFIGRegister</t>
+  </si>
+  <si>
+    <t>25.4.3 GPIO_EOI Register</t>
+  </si>
+  <si>
+    <t>25.4.4 GPIO_IRQSTATUS_RAW_n Register</t>
+  </si>
+  <si>
+    <t>25.4.5 GPIO_IRQSTATUS_n Register</t>
+  </si>
+  <si>
+    <t>25.4.6 GPIO_IRQSTATUS_SET_n Register</t>
+  </si>
+  <si>
+    <t>25.4.7 GPIO_IRQSTATUS_CLR_n Register</t>
+  </si>
+  <si>
+    <t>25.4.8 GPIO_SYSSTATUS Register</t>
+  </si>
+  <si>
+    <t>25.4.9 GPIO_CTRLRegister</t>
+  </si>
+  <si>
+    <t>25.4.10 GPIO_OERegister</t>
+  </si>
+  <si>
+    <t>25.4.11 GPIO_DATAIN Register</t>
+  </si>
+  <si>
+    <t>25.4.12 GPIO_DATAOUT Register</t>
+  </si>
+  <si>
+    <t>25.4.13 GPIO_LEVELDETECT0 Register</t>
+  </si>
+  <si>
+    <t>25.4.14 GPIO_LEVELDETECT1 Register</t>
+  </si>
+  <si>
+    <t>25.4.15 GPIO_RISINGDETECT Register</t>
+  </si>
+  <si>
+    <t>25.4.16 GPIO_FALLINGDETECT Register</t>
+  </si>
+  <si>
+    <t>25.4.17 GPIO_DEBOUNCENABLE Register</t>
+  </si>
+  <si>
+    <t>25.4.18 GPIO_DEBOUNCINGTIME Register</t>
+  </si>
+  <si>
+    <t>25.4.19 GPIO_CLEARDATAOUT Register</t>
+  </si>
+  <si>
+    <t>25.4.20 GPIO_SETDATAOUT Register</t>
+  </si>
+  <si>
+    <t>Cấu hình input/output cơ bản</t>
+  </si>
+  <si>
+    <t>Cấu hình ngắt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,6 +2386,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="Arial"/>
@@ -1042,8 +2409,40 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,8 +2461,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1071,11 +2476,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1099,13 +2585,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2093,146 +3598,1182 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20D2B13-EB42-4847-A93E-74978282074B}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A2:P94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="2" spans="2:16">
+      <c r="B2" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="12"/>
+      <c r="C3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="12"/>
+      <c r="C9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="14"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="21"/>
+    </row>
+    <row r="28" spans="1:16" ht="23.25">
+      <c r="A28" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="17.25">
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15">
+      <c r="C30" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15">
+      <c r="C31" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15">
+      <c r="C32" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15">
+      <c r="C33" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15">
+      <c r="C34" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15">
+      <c r="C35" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15">
+      <c r="C37" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15">
+      <c r="C38" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15">
+      <c r="C39" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="15">
+      <c r="C40" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15">
+      <c r="C41" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15">
+      <c r="C42" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="17.25">
+      <c r="B44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15">
+      <c r="C45" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15">
+      <c r="C46" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15">
+      <c r="C47" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15">
+      <c r="C48" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="23.25">
+      <c r="A50" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.25">
+      <c r="B51" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15">
+      <c r="B52" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15">
+      <c r="B53" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15">
+      <c r="B54" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15">
+      <c r="B55" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15">
+      <c r="B56" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15">
+      <c r="B57" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15">
+      <c r="B58" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15">
+      <c r="B59" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="23.25">
+      <c r="A61" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17.25">
+      <c r="B62" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15">
+      <c r="B63" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15">
+      <c r="B64" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="B65" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15">
+      <c r="B66" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15">
+      <c r="B67" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15">
+      <c r="B68" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15">
+      <c r="B69" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15">
+      <c r="B70" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15">
+      <c r="B71" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15">
+      <c r="B72" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17.25">
+      <c r="B73" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15">
+      <c r="B74" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15">
+      <c r="B75" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15">
+      <c r="B76" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="23.25">
+      <c r="A78" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17.25">
+      <c r="B79" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15">
+      <c r="C80" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="15">
+      <c r="C81" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="15">
+      <c r="C82" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="15">
+      <c r="C83" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="17.25">
+      <c r="B84" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="15">
+      <c r="C85" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="C86" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="15">
+      <c r="C87" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="15">
+      <c r="C88" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="15">
+      <c r="C89" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="15">
+      <c r="C90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="17.25">
+      <c r="B91" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="C92" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="15">
+      <c r="C93" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="15">
+      <c r="C94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" location="'Functional Description'!A28" display="25.3.1 Operating Modes" xr:uid="{5FD22FCB-9467-4056-AC2A-71343416A3BD}"/>
+    <hyperlink ref="D5" location="'Functional Description'!A50" display="25.3.2.1 Clocks" xr:uid="{9ACC8D48-3E62-4131-892D-1878917B3D94}"/>
+    <hyperlink ref="D8" location="'Functional Description'!A61" display="25.3.2.4 Reset" xr:uid="{F7270007-6944-4DC7-9F44-668F66392174}"/>
+    <hyperlink ref="E24" location="'Functional Description'!A78" display="25.3.4.3 Data Input (Capture)/Output (Drive)" xr:uid="{EE9796FD-7543-4FAA-945D-BE79747ED6B5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF223D5-313C-4B2F-84E6-E629F4FAECCC}">
+  <dimension ref="B2:M23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="2:13">
       <c r="B2" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="13"/>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="C4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="C7" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="E21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="E22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="12"/>
+      <c r="C5" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="12"/>
+      <c r="C6" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="12"/>
+      <c r="C7" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="12"/>
+      <c r="C8" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="12"/>
+      <c r="C9" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="12"/>
+      <c r="C12" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="12"/>
+      <c r="C13" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="12"/>
+      <c r="C14" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="12"/>
+      <c r="C15" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="12"/>
+      <c r="C16" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="12"/>
+      <c r="C17" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="12"/>
+      <c r="C18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="12"/>
+      <c r="C21" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="12"/>
+      <c r="C22" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unit7_character_driver/AM335x_GPIO.xlsx
+++ b/unit7_character_driver/AM335x_GPIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Game\Linux\unit7_character_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A51DFC1-F623-4592-953D-6869B6D95D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC1ED65-F208-4343-A16B-B456009489E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-672" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{909724FB-943A-4423-A4E6-D06061983EC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{909724FB-943A-4423-A4E6-D06061983EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="204">
   <si>
     <t>🔹 25.1.1 Mục đích của GPIO</t>
   </si>
@@ -2330,13 +2330,1441 @@
   </si>
   <si>
     <t>Cấu hình ngắt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ Mục đích của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_OE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Output Enable Register)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đây là thanh ghi dùng để </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cấu hình hướng của từng chân GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → cấu hình </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → cấu hình </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input</t>
+    </r>
+  </si>
+  <si>
+    <t>⚙️ Cách hoạt động</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tương ứng với 32 chân GPIO trong mỗi bank (GPIO0 → GPIO3), thanh ghi này có 32 bit: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>OUTPUTEN[31:0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bit = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Chân tương ứng hoạt động ở </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chế độ output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (cho phép ghi dữ liệu ra ngoài).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bit = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Chân tương ứng hoạt động ở </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chế độ input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (chỉ đọc dữ liệu đầu vào).</t>
+    </r>
+  </si>
+  <si>
+    <t>🛠️ Reset Behavior</t>
+  </si>
+  <si>
+    <r>
+      <t>Mặc định sau reset: tất cả các bit đều = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (tức là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tất cả GPIO là input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), đảm bảo an toàn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giá trị mặc định: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>0xFFFFFFFF</t>
+    </r>
+  </si>
+  <si>
+    <t>📝 Ví dụ lập trình (giả định dùng GPIO1_28 làm output):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ Mục đích của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_DATAIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đọc trạng thái logic (high/low) hiện tại của các chân GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đang cấu hình là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read-only register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ứng với từng bit là từng chân GPIO.</t>
+    </r>
+  </si>
+  <si>
+    <t>⚙️ Chi tiết hoạt động</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thanh ghi 32-bit: mỗi bit tương ứng với 1 chân GPIO từ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIOx_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đến </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIOx_31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: mức logic cao (high)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: mức logic thấp (low)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dữ liệu được </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lấy mẫu đồng bộ với xung interface clock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, và sẽ mất </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 hoặc 3 chu kỳ OCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để phản ánh thay đổi trên chân vào thanh ghi (tùy vào cấu hình </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>AUTOIDLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>⏱️ Độ trễ khi đọc (latency)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nếu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>AUTOIDLE = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (trong </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_SYSCONFIG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">): độ trễ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 chu kỳ OCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nếu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>AUTOIDLE = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: độ trễ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 chu kỳ OCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>📝 Ví dụ đọc giá trị chân GPIO1_28</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ Mục đích của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_DATAOUT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dùng để </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>điều khiển mức logic của các chân GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> được cấu hình là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (qua </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_OE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Là thanh ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read/write 32-bit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, mỗi bit tương ứng với 1 chân GPIO.</t>
+    </r>
+  </si>
+  <si>
+    <t>⚙️ Hoạt động</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Viết giá trị 1 vào bit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: đưa mức logic cao ra chân </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIOx_n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Viết giá trị 0 vào bit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: đưa mức logic thấp ra chân </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIOx_n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chỉ có hiệu lực khi chân đó đang là output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (tức bit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trong </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_OE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 0).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🆚 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>SETDATAOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>CLEARDATAOUT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Có thể dùng thanh ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_SETDATAOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set bit = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, và </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_CLEARDATAOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clear bit = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – cách này tiện hơn nếu không muốn thao tác toàn bộ thanh ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>DATAOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>📝 Ví dụ điều khiển GPIO1_28 output</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⚙️ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_SETDATAOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Offset: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>0x194</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vào bit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: set bit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trong </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_DATAOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1 → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đưa mức logic cao ra GPIOx_n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vào bit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không ảnh hưởng gì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>*gpio1_set = (1 &lt;&lt; 28);  // GPIO1_28 output = 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⚙️ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_CLEARDATAOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Offset: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>0x190</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ghi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vào bit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: clear bit </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trong </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>GPIO_DATAOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 0 → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đưa mức logic thấp ra GPIOx_n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>*gpio1_clear = (1 &lt;&lt; 28);  // GPIO1_28 output = 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2436,6 +3864,24 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
@@ -2561,7 +4007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2589,12 +4035,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -2606,8 +4051,16 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2830,8 +4283,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6928484" y="8122920"/>
-          <a:ext cx="6721231" cy="3057525"/>
+          <a:off x="6926579" y="8058150"/>
+          <a:ext cx="6725041" cy="3040380"/>
           <a:chOff x="5913119" y="9130665"/>
           <a:chExt cx="6725041" cy="3057525"/>
         </a:xfrm>
@@ -2992,6 +4445,143 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>553466</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF66EFF-2745-5E86-77C3-BFE92CF24A7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="6962775"/>
+          <a:ext cx="7278116" cy="2067213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>496320</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>105036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A708683-D343-C86F-4C1C-1F37A447F1AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="11877675"/>
+          <a:ext cx="7306695" cy="1867161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>61159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1981496-7183-3F4F-3646-CB8D6059A682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="16182975"/>
+          <a:ext cx="5353050" cy="3680659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3426,8 +5016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D1237A-E95A-4A07-A241-2A19B952D1E7}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3600,7 +5190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20D2B13-EB42-4847-A93E-74978282074B}">
   <dimension ref="A2:P94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
@@ -3627,466 +5217,194 @@
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="12"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="14"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="13" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17" t="s">
+      <c r="L5" s="15"/>
+      <c r="M5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="12"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
+      <c r="E16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
+      <c r="F17" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="F18" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16">
       <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
+      <c r="F19" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16">
       <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
+      <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="14"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
+      <c r="F21" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
+      <c r="F22" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
+      <c r="F23" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16">
       <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="14"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16">
       <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="14"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="21"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="20"/>
     </row>
     <row r="28" spans="1:16" ht="23.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4186,7 +5504,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="23.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="21" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4236,7 +5554,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="23.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="21" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4261,17 +5579,17 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15">
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="22" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15">
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15">
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="22" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4316,7 +5634,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="23.25">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="21" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4413,10 +5731,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF223D5-313C-4B2F-84E6-E629F4FAECCC}">
-  <dimension ref="B2:M23"/>
+  <dimension ref="A2:M122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4439,343 +5757,570 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="12"/>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" t="s">
         <v>162</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="12"/>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="12"/>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="12"/>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="12"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="C10" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="12"/>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="12"/>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="12"/>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="12"/>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="12"/>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="2:13">
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="B17" s="12"/>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="2:13">
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="B18" s="12"/>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="2:13">
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="B19" s="12"/>
-      <c r="C19" s="13" t="s">
+      <c r="C19" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="2:13">
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
+      <c r="C20" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="2:13">
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="B21" s="12"/>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" spans="2:13">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="B22" s="12"/>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17.25">
+      <c r="B26" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15">
+      <c r="C27" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15">
+      <c r="C28" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15">
+      <c r="C29" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.25">
+      <c r="B30" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="C31" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15">
+      <c r="C32" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15">
+      <c r="C33" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="17.25">
+      <c r="B34" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15">
+      <c r="C35" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="17.25">
+      <c r="B37" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
+      <c r="A53" s="26"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15">
+      <c r="A54" s="26"/>
+      <c r="C54" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="26"/>
+      <c r="C56" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15">
+      <c r="A57" s="26"/>
+      <c r="D57" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15">
+      <c r="A58" s="26"/>
+      <c r="D58" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
+      <c r="A59" s="26"/>
+      <c r="C59" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
+      <c r="A61" s="26"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
+      <c r="A62" s="26"/>
+      <c r="C62" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="26"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="26"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="26"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="26"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="26"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="26"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="26"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="26"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="26"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="26"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="26"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="26"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17.25">
+      <c r="A77" s="26"/>
+      <c r="B77" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15">
+      <c r="A78" s="26"/>
+      <c r="C78" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" s="26"/>
+      <c r="C79" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17.25">
+      <c r="A80" s="26"/>
+      <c r="B80" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="26"/>
+      <c r="C81" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="26"/>
+      <c r="C82" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15">
+      <c r="A83" s="26"/>
+      <c r="C83" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15">
+      <c r="A85" s="26"/>
+      <c r="C85" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17.25">
+      <c r="A86" s="26"/>
+      <c r="B86" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="26"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="26"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="26"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="26"/>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="26"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="26"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="26"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="26"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="26"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="26"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="26"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="26"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="26"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="26"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="26"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="26"/>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="26"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="26"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="26"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="26"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="26"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="26"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17.25">
+      <c r="B111" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="15">
+      <c r="C113" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="C114" s="28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="17.25">
+      <c r="B115" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="15">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="15">
+      <c r="C117" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="2"/>
+      <c r="C118" s="28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="27"/>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="28"/>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="28"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C12" location="'GPIO Registers'!A25" display="25.4.10 GPIO_OERegister" xr:uid="{1E462892-052B-4BC5-B4A3-6BF672E12638}"/>
+    <hyperlink ref="C13" location="'GPIO Registers'!A51" display="25.4.11 GPIO_DATAIN Register" xr:uid="{0AB8EBE6-0777-4388-9758-7549CAE88A6C}"/>
+    <hyperlink ref="C14" location="'GPIO Registers'!A76" display="25.4.12 GPIO_DATAOUT Register" xr:uid="{AA604C63-4252-48DD-88D2-DA03FCA1BABA}"/>
+    <hyperlink ref="C21:C22" location="'GPIO Registers'!A110" display="25.4.19 GPIO_CLEARDATAOUT Register" xr:uid="{41BC82C7-C827-40E1-B521-57D7EEC8D6F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>